--- a/ポートフォリオ設計図.xlsx
+++ b/ポートフォリオ設計図.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProjects\MyHomePage\TasukuHonjo.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C81734-D22A-41E9-ABC5-F4EE18674781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1251E302-D08D-4825-B37D-EE79086F3A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8917DE6A-096F-4391-99BE-68CC70C10BD1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Home" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +33,18 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>タブ名：HonjoPortfolio</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,10 +428,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F658E8DE-76E2-4381-845A-33A5FA3D079E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ポートフォリオ設計図.xlsx
+++ b/ポートフォリオ設計図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProjects\MyHomePage\TasukuHonjo.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\TasukuHonjo.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1251E302-D08D-4825-B37D-EE79086F3A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B76F72-03C9-493C-9A0A-4475FB0248CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8917DE6A-096F-4391-99BE-68CC70C10BD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8917DE6A-096F-4391-99BE-68CC70C10BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>タブ名：HonjoPortfolio</t>
     <rPh sb="2" eb="3">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Portfolio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蒸留し、成熟させ、ブレンドする。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウリュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイジュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それが僕の考えるゲーム制作。</t>
+    <rPh sb="3" eb="4">
+      <t>ボク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -49,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,13 +92,42 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="BIZ UDP明朝 Medium"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDA65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -88,8 +144,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -98,6 +166,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFDA65"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -426,17 +499,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F658E8DE-76E2-4381-845A-33A5FA3D079E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J1" sqref="J1:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="2.625" style="2" customWidth="1"/>
+    <col min="3" max="20" width="9" style="2"/>
+    <col min="21" max="27" width="9" style="1"/>
+    <col min="28" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="C8" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
